--- a/Informations stations.xlsx
+++ b/Informations stations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jqygn\Documents\ESILV\A4\S8\0.Adv. Python, Git, Linux for Bl\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jqygn\Documents\ESILV\A4\S8\0.Adv. Python, Git, Linux for Bl\Project Git\PGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5132BDFE-7724-458A-A5EB-9272443C1DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F15999D-A194-4375-8D0B-6DB177F1EE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4418" uniqueCount="3008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4415" uniqueCount="3007">
   <si>
     <t>Identifiant station</t>
   </si>
@@ -8564,9 +8564,6 @@
   </si>
   <si>
     <t>Ordener - Poissonniers</t>
-  </si>
-  <si>
-    <t>13118_relais</t>
   </si>
   <si>
     <t>18026</t>
@@ -9407,10 +9404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1472"/>
+  <dimension ref="A1:E1471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A1374" workbookViewId="0">
+      <selection activeCell="I1394" sqref="I1394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33073,101 +33070,101 @@
         <v>2848</v>
       </c>
       <c r="B1392" t="s">
-        <v>153</v>
+        <v>2849</v>
       </c>
       <c r="C1392" t="s">
         <v>7</v>
       </c>
       <c r="D1392">
-        <v>48.824305287066998</v>
+        <v>48.892994625680238</v>
       </c>
       <c r="E1392">
-        <v>2.3763057589530998</v>
+        <v>2.3401448875665669</v>
       </c>
     </row>
     <row r="1393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="B1393" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="C1393" t="s">
         <v>7</v>
       </c>
       <c r="D1393">
-        <v>48.892994625680238</v>
+        <v>48.840216709220002</v>
       </c>
       <c r="E1393">
-        <v>2.3401448875665669</v>
+        <v>2.2716060653329002</v>
       </c>
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="B1394" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="C1394" t="s">
         <v>7</v>
       </c>
       <c r="D1394">
-        <v>48.840216709220002</v>
+        <v>48.888796556487002</v>
       </c>
       <c r="E1394">
-        <v>2.2716060653329002</v>
+        <v>2.3925811931921999</v>
       </c>
     </row>
     <row r="1395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="B1395" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="C1395" t="s">
-        <v>7</v>
+        <v>592</v>
       </c>
       <c r="D1395">
-        <v>48.888796556487002</v>
+        <v>48.957567992679998</v>
       </c>
       <c r="E1395">
-        <v>2.3925811931921999</v>
+        <v>2.2834496977978</v>
       </c>
     </row>
     <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="B1396" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="C1396" t="s">
-        <v>592</v>
+        <v>7</v>
       </c>
       <c r="D1396">
-        <v>48.957567992679998</v>
+        <v>48.875315630652999</v>
       </c>
       <c r="E1396">
-        <v>2.2834496977978</v>
+        <v>2.3229019716382</v>
       </c>
     </row>
     <row r="1397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="B1397" t="s">
-        <v>2858</v>
+        <v>220</v>
       </c>
       <c r="C1397" t="s">
-        <v>7</v>
+        <v>685</v>
       </c>
       <c r="D1397">
-        <v>48.875315630652999</v>
+        <v>48.905928000000003</v>
       </c>
       <c r="E1397">
-        <v>2.3229019716382</v>
+        <v>2.2536290000000001</v>
       </c>
     </row>
     <row r="1398" spans="1:5" x14ac:dyDescent="0.25">
@@ -33175,883 +33172,883 @@
         <v>2859</v>
       </c>
       <c r="B1398" t="s">
-        <v>220</v>
+        <v>2860</v>
       </c>
       <c r="C1398" t="s">
-        <v>685</v>
+        <v>2861</v>
       </c>
       <c r="D1398">
-        <v>48.905928000000003</v>
+        <v>48.926182814310998</v>
       </c>
       <c r="E1398">
-        <v>2.2536290000000001</v>
+        <v>2.3912295762525</v>
       </c>
     </row>
     <row r="1399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="B1399" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="C1399" t="s">
-        <v>2862</v>
+        <v>7</v>
       </c>
       <c r="D1399">
-        <v>48.926182814310998</v>
+        <v>48.882030182599003</v>
       </c>
       <c r="E1399">
-        <v>2.3912295762525</v>
+        <v>2.3635615780950001</v>
       </c>
     </row>
     <row r="1400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="B1400" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="C1400" t="s">
-        <v>7</v>
+        <v>2861</v>
       </c>
       <c r="D1400">
-        <v>48.882030182599003</v>
+        <v>48.923306888013002</v>
       </c>
       <c r="E1400">
-        <v>2.3635615780950001</v>
+        <v>2.3847292397611</v>
       </c>
     </row>
     <row r="1401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="B1401" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="C1401" t="s">
-        <v>2862</v>
+        <v>265</v>
       </c>
       <c r="D1401">
-        <v>48.923306888013002</v>
+        <v>48.893264435085698</v>
       </c>
       <c r="E1401">
-        <v>2.3847292397611</v>
+        <v>2.4126765131950378</v>
       </c>
     </row>
     <row r="1402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="B1402" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="C1402" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="D1402">
-        <v>48.893264435085698</v>
+        <v>48.826177754027</v>
       </c>
       <c r="E1402">
-        <v>2.4126765131950378</v>
+        <v>2.3420378552201999</v>
       </c>
     </row>
     <row r="1403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="B1403" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="C1403" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="D1403">
-        <v>48.826177754027</v>
+        <v>48.874515389636997</v>
       </c>
       <c r="E1403">
-        <v>2.3420378552201999</v>
+        <v>2.4152836203575001</v>
       </c>
     </row>
     <row r="1404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="B1404" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="C1404" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="D1404">
-        <v>48.874515389636997</v>
+        <v>48.874031137271999</v>
       </c>
       <c r="E1404">
-        <v>2.4152836203575001</v>
+        <v>2.3895947635174002</v>
       </c>
     </row>
     <row r="1405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="B1405" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="C1405" t="s">
         <v>7</v>
       </c>
       <c r="D1405">
-        <v>48.874031137271999</v>
+        <v>48.843372571022002</v>
       </c>
       <c r="E1405">
-        <v>2.3895947635174002</v>
+        <v>2.2751328349112998</v>
       </c>
     </row>
     <row r="1406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="B1406" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="C1406" t="s">
         <v>7</v>
       </c>
       <c r="D1406">
-        <v>48.843372571022002</v>
+        <v>48.842055041656003</v>
       </c>
       <c r="E1406">
-        <v>2.2751328349112998</v>
+        <v>2.2859910875559</v>
       </c>
     </row>
     <row r="1407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="B1407" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="C1407" t="s">
         <v>7</v>
       </c>
       <c r="D1407">
-        <v>48.842055041656003</v>
+        <v>48.853844054333997</v>
       </c>
       <c r="E1407">
-        <v>2.2859910875559</v>
+        <v>2.2897053482219998</v>
       </c>
     </row>
     <row r="1408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="B1408" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="C1408" t="s">
         <v>7</v>
       </c>
       <c r="D1408">
-        <v>48.853844054333997</v>
+        <v>48.828543456283001</v>
       </c>
       <c r="E1408">
-        <v>2.2897053482219998</v>
+        <v>2.3583075090493999</v>
       </c>
     </row>
     <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="B1409" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="C1409" t="s">
         <v>7</v>
       </c>
       <c r="D1409">
-        <v>48.828543456283001</v>
+        <v>48.868266498223001</v>
       </c>
       <c r="E1409">
-        <v>2.3583075090493999</v>
+        <v>2.3304839059711</v>
       </c>
     </row>
     <row r="1410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="B1410" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="C1410" t="s">
-        <v>7</v>
+        <v>985</v>
       </c>
       <c r="D1410">
-        <v>48.868266498223001</v>
+        <v>48.790147809608001</v>
       </c>
       <c r="E1410">
-        <v>2.3304839059711</v>
+        <v>2.4328628182410998</v>
       </c>
     </row>
     <row r="1411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="B1411" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="C1411" t="s">
-        <v>985</v>
+        <v>20</v>
       </c>
       <c r="D1411">
-        <v>48.790147809608001</v>
+        <v>48.920341569603259</v>
       </c>
       <c r="E1411">
-        <v>2.4328628182410998</v>
+        <v>2.343854382634162</v>
       </c>
     </row>
     <row r="1412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="B1412" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="C1412" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D1412">
-        <v>48.920341569603259</v>
+        <v>48.825487045602003</v>
       </c>
       <c r="E1412">
-        <v>2.343854382634162</v>
+        <v>2.3816306985827</v>
       </c>
     </row>
     <row r="1413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="B1413" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="C1413" t="s">
         <v>7</v>
       </c>
       <c r="D1413">
-        <v>48.825487045602003</v>
+        <v>48.880516995481997</v>
       </c>
       <c r="E1413">
-        <v>2.3816306985827</v>
+        <v>2.3763902374410999</v>
       </c>
     </row>
     <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="B1414" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="C1414" t="s">
         <v>7</v>
       </c>
       <c r="D1414">
-        <v>48.880516995481997</v>
+        <v>48.832846814470997</v>
       </c>
       <c r="E1414">
-        <v>2.3763902374410999</v>
+        <v>2.3711421713232999</v>
       </c>
     </row>
     <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="B1415" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="C1415" t="s">
-        <v>7</v>
+        <v>749</v>
       </c>
       <c r="D1415">
-        <v>48.832846814470997</v>
+        <v>48.909751999999997</v>
       </c>
       <c r="E1415">
-        <v>2.3711421713232999</v>
+        <v>2.2391450000000002</v>
       </c>
     </row>
     <row r="1416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="B1416" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="C1416" t="s">
-        <v>749</v>
+        <v>7</v>
       </c>
       <c r="D1416">
-        <v>48.909751999999997</v>
+        <v>48.867872484749</v>
       </c>
       <c r="E1416">
-        <v>2.2391450000000002</v>
+        <v>2.3648982158071998</v>
       </c>
     </row>
     <row r="1417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="B1417" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="C1417" t="s">
-        <v>7</v>
+        <v>1680</v>
       </c>
       <c r="D1417">
-        <v>48.867872484749</v>
+        <v>48.813219812189999</v>
       </c>
       <c r="E1417">
-        <v>2.3648982158071998</v>
+        <v>2.2716768079162999</v>
       </c>
     </row>
     <row r="1418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="B1418" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="C1418" t="s">
-        <v>1680</v>
+        <v>7</v>
       </c>
       <c r="D1418">
-        <v>48.813219812189999</v>
+        <v>48.882193779571999</v>
       </c>
       <c r="E1418">
-        <v>2.2716768079162999</v>
+        <v>2.3405495658516999</v>
       </c>
     </row>
     <row r="1419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="B1419" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="C1419" t="s">
         <v>7</v>
       </c>
       <c r="D1419">
-        <v>48.882193779571999</v>
+        <v>48.892120821173982</v>
       </c>
       <c r="E1419">
-        <v>2.3405495658516999</v>
+        <v>2.3092341050505638</v>
       </c>
     </row>
     <row r="1420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="B1420" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="C1420" t="s">
         <v>7</v>
       </c>
       <c r="D1420">
-        <v>48.892120821173982</v>
+        <v>48.848840799999998</v>
       </c>
       <c r="E1420">
-        <v>2.3092341050505638</v>
+        <v>2.3973043000000001</v>
       </c>
     </row>
     <row r="1421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="B1421" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="C1421" t="s">
         <v>7</v>
       </c>
       <c r="D1421">
-        <v>48.848840799999998</v>
+        <v>48.857615678564997</v>
       </c>
       <c r="E1421">
-        <v>2.3973043000000001</v>
+        <v>2.3358313530377002</v>
       </c>
     </row>
     <row r="1422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="B1422" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="C1422" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="D1422">
-        <v>48.857615678564997</v>
+        <v>48.907134414988001</v>
       </c>
       <c r="E1422">
-        <v>2.3358313530377002</v>
+        <v>2.3960057280531002</v>
       </c>
     </row>
     <row r="1423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="B1423" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="C1423" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="D1423">
-        <v>48.907134414988001</v>
+        <v>48.857992591527001</v>
       </c>
       <c r="E1423">
-        <v>2.3960057280531002</v>
+        <v>2.3469167947769001</v>
       </c>
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="B1424" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="C1424" t="s">
         <v>7</v>
       </c>
       <c r="D1424">
-        <v>48.857992591527001</v>
+        <v>48.870475399386997</v>
       </c>
       <c r="E1424">
-        <v>2.3469167947769001</v>
+        <v>2.3076190799475</v>
       </c>
     </row>
     <row r="1425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="B1425" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="C1425" t="s">
         <v>7</v>
       </c>
       <c r="D1425">
-        <v>48.870475399386997</v>
+        <v>48.861818092669999</v>
       </c>
       <c r="E1425">
-        <v>2.3076190799475</v>
+        <v>2.3501381278037998</v>
       </c>
     </row>
     <row r="1426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="B1426" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="C1426" t="s">
         <v>7</v>
       </c>
       <c r="D1426">
-        <v>48.861818092669999</v>
+        <v>48.852888670364997</v>
       </c>
       <c r="E1426">
-        <v>2.3501381278037998</v>
+        <v>2.3891476408096</v>
       </c>
     </row>
     <row r="1427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="B1427" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="C1427" t="s">
         <v>7</v>
       </c>
       <c r="D1427">
-        <v>48.852888670364997</v>
+        <v>48.837468800000003</v>
       </c>
       <c r="E1427">
-        <v>2.3891476408096</v>
+        <v>2.4017650000000001</v>
       </c>
     </row>
     <row r="1428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="B1428" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="C1428" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D1428">
-        <v>48.837468800000003</v>
+        <v>48.815007000000001</v>
       </c>
       <c r="E1428">
-        <v>2.4017650000000001</v>
+        <v>2.3283179999999999</v>
       </c>
     </row>
     <row r="1429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="B1429" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="C1429" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D1429">
-        <v>48.815007000000001</v>
+        <v>48.906442763495001</v>
       </c>
       <c r="E1429">
-        <v>2.3283179999999999</v>
+        <v>2.3584905266762002</v>
       </c>
     </row>
     <row r="1430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="B1430" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="C1430" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D1430">
-        <v>48.906442763495001</v>
+        <v>48.866830968941997</v>
       </c>
       <c r="E1430">
-        <v>2.3584905266762002</v>
+        <v>2.3654810339212</v>
       </c>
     </row>
     <row r="1431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="B1431" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="C1431" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1431">
-        <v>48.866830968941997</v>
+        <v>48.802117531472</v>
       </c>
       <c r="E1431">
-        <v>2.3654810339212</v>
+        <v>2.4543687905029001</v>
       </c>
     </row>
     <row r="1432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="B1432" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="C1432" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="D1432">
-        <v>48.802117531472</v>
+        <v>48.910423437525999</v>
       </c>
       <c r="E1432">
-        <v>2.4543687905029001</v>
+        <v>2.3995766043662998</v>
       </c>
     </row>
     <row r="1433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="B1433" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="C1433" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="D1433">
-        <v>48.910423437525999</v>
+        <v>48.875674400850997</v>
       </c>
       <c r="E1433">
-        <v>2.3995766043662998</v>
+        <v>2.3265598341823002</v>
       </c>
     </row>
     <row r="1434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="B1434" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="C1434" t="s">
         <v>7</v>
       </c>
       <c r="D1434">
-        <v>48.875674400850997</v>
+        <v>48.861642738779999</v>
       </c>
       <c r="E1434">
-        <v>2.3265598341823002</v>
+        <v>2.3727491497992999</v>
       </c>
     </row>
     <row r="1435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="B1435" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="C1435" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D1435">
-        <v>48.861642738779999</v>
+        <v>48.833122686453997</v>
       </c>
       <c r="E1435">
-        <v>2.3727491497992999</v>
+        <v>2.2571459412574999</v>
       </c>
     </row>
     <row r="1436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="B1436" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="C1436" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D1436">
-        <v>48.833122686453997</v>
+        <v>48.852060203583001</v>
       </c>
       <c r="E1436">
-        <v>2.2571459412574999</v>
+        <v>2.3017993569374</v>
       </c>
     </row>
     <row r="1437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="B1437" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="C1437" t="s">
         <v>7</v>
       </c>
       <c r="D1437">
-        <v>48.852060203583001</v>
+        <v>48.836395736424002</v>
       </c>
       <c r="E1437">
-        <v>2.3017993569374</v>
+        <v>2.2784192115068</v>
       </c>
     </row>
     <row r="1438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="B1438" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="C1438" t="s">
         <v>7</v>
       </c>
       <c r="D1438">
-        <v>48.836395736424002</v>
+        <v>48.850507011841998</v>
       </c>
       <c r="E1438">
-        <v>2.2784192115068</v>
+        <v>2.3930755582745</v>
       </c>
     </row>
     <row r="1439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="B1439" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="C1439" t="s">
         <v>7</v>
       </c>
       <c r="D1439">
-        <v>48.850507011841998</v>
+        <v>48.851297099999996</v>
       </c>
       <c r="E1439">
-        <v>2.3930755582745</v>
+        <v>2.3624535</v>
       </c>
     </row>
     <row r="1440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="B1440" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="C1440" t="s">
         <v>7</v>
       </c>
       <c r="D1440">
-        <v>48.851297099999996</v>
+        <v>48.852828153441997</v>
       </c>
       <c r="E1440">
-        <v>2.3624535</v>
+        <v>2.2978776320815002</v>
       </c>
     </row>
     <row r="1441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="B1441" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="C1441" t="s">
         <v>7</v>
       </c>
       <c r="D1441">
-        <v>48.852828153441997</v>
+        <v>48.870406028483004</v>
       </c>
       <c r="E1441">
-        <v>2.2978776320815002</v>
+        <v>2.323243509808</v>
       </c>
     </row>
     <row r="1442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="B1442" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="C1442" t="s">
         <v>7</v>
       </c>
       <c r="D1442">
-        <v>48.870406028483004</v>
+        <v>48.876383969378999</v>
       </c>
       <c r="E1442">
-        <v>2.323243509808</v>
+        <v>2.3353566779335</v>
       </c>
     </row>
     <row r="1443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="B1443" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="C1443" t="s">
         <v>7</v>
       </c>
       <c r="D1443">
-        <v>48.876383969378999</v>
+        <v>48.850974331940002</v>
       </c>
       <c r="E1443">
-        <v>2.3353566779335</v>
+        <v>2.3563072085380998</v>
       </c>
     </row>
     <row r="1444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="B1444" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="C1444" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1444">
-        <v>48.850974331940002</v>
+        <v>48.776994962010001</v>
       </c>
       <c r="E1444">
-        <v>2.3563072085380998</v>
+        <v>2.4552552404284</v>
       </c>
     </row>
     <row r="1445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="B1445" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="C1445" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1445">
-        <v>48.776994962010001</v>
+        <v>48.847648620797003</v>
       </c>
       <c r="E1445">
-        <v>2.4552552404284</v>
+        <v>2.3902582749724002</v>
       </c>
     </row>
     <row r="1446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="B1446" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="C1446" t="s">
         <v>7</v>
       </c>
       <c r="D1446">
-        <v>48.847648620797003</v>
+        <v>48.870306124370003</v>
       </c>
       <c r="E1446">
-        <v>2.3902582749724002</v>
+        <v>2.2850745414202001</v>
       </c>
     </row>
     <row r="1447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="B1447" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="C1447" t="s">
         <v>7</v>
       </c>
       <c r="D1447">
-        <v>48.870306124370003</v>
+        <v>48.838811048815003</v>
       </c>
       <c r="E1447">
-        <v>2.2850745414202001</v>
+        <v>2.3896577954292</v>
       </c>
     </row>
     <row r="1448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="B1448" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="C1448" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1448">
-        <v>48.838811048815003</v>
+        <v>48.797078298909</v>
       </c>
       <c r="E1448">
-        <v>2.3896577954292</v>
+        <v>2.4638014238069998</v>
       </c>
     </row>
     <row r="1449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="B1449" t="s">
-        <v>2962</v>
+        <v>1560</v>
       </c>
       <c r="C1449" t="s">
-        <v>10</v>
+        <v>756</v>
       </c>
       <c r="D1449">
-        <v>48.797078298909</v>
+        <v>48.838513582184</v>
       </c>
       <c r="E1449">
-        <v>2.4638014238069998</v>
+        <v>2.1866139007512002</v>
       </c>
     </row>
     <row r="1450" spans="1:5" x14ac:dyDescent="0.25">
@@ -34059,389 +34056,372 @@
         <v>2963</v>
       </c>
       <c r="B1450" t="s">
-        <v>1560</v>
+        <v>2964</v>
       </c>
       <c r="C1450" t="s">
-        <v>756</v>
+        <v>10</v>
       </c>
       <c r="D1450">
-        <v>48.838513582184</v>
+        <v>48.791223955760003</v>
       </c>
       <c r="E1450">
-        <v>2.1866139007512002</v>
+        <v>2.4642198533952002</v>
       </c>
     </row>
     <row r="1451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="B1451" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="C1451" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1451">
-        <v>48.791223955760003</v>
+        <v>48.824246899999999</v>
       </c>
       <c r="E1451">
-        <v>2.4642198533952002</v>
+        <v>2.3186306000000001</v>
       </c>
     </row>
     <row r="1452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="B1452" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="C1452" t="s">
         <v>7</v>
       </c>
       <c r="D1452">
-        <v>48.824246899999999</v>
+        <v>48.829899841747</v>
       </c>
       <c r="E1452">
-        <v>2.3186306000000001</v>
+        <v>2.3543356766749</v>
       </c>
     </row>
     <row r="1453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="B1453" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="C1453" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1453">
-        <v>48.829899841747</v>
+        <v>48.780258200618</v>
       </c>
       <c r="E1453">
-        <v>2.3543356766749</v>
+        <v>2.4455094301232001</v>
       </c>
     </row>
     <row r="1454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="B1454" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="C1454" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D1454">
-        <v>48.780258200618</v>
+        <v>48.915167262213537</v>
       </c>
       <c r="E1454">
-        <v>2.4455094301232001</v>
+        <v>2.3576332256197929</v>
       </c>
     </row>
     <row r="1455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="B1455" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="C1455" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D1455">
-        <v>48.915167262213537</v>
+        <v>48.835523812040996</v>
       </c>
       <c r="E1455">
-        <v>2.3576332256197929</v>
+        <v>2.3025986552237998</v>
       </c>
     </row>
     <row r="1456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="B1456" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="C1456" t="s">
         <v>7</v>
       </c>
       <c r="D1456">
-        <v>48.835523812040996</v>
+        <v>48.871214799999997</v>
       </c>
       <c r="E1456">
-        <v>2.3025986552237998</v>
+        <v>2.2937349</v>
       </c>
     </row>
     <row r="1457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="B1457" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="C1457" t="s">
         <v>7</v>
       </c>
       <c r="D1457">
-        <v>48.871214799999997</v>
+        <v>48.873304970455322</v>
       </c>
       <c r="E1457">
-        <v>2.2937349</v>
+        <v>2.4014145880937581</v>
       </c>
     </row>
     <row r="1458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="B1458" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="C1458" t="s">
         <v>7</v>
       </c>
       <c r="D1458">
-        <v>48.873304970455322</v>
+        <v>48.871044051984001</v>
       </c>
       <c r="E1458">
-        <v>2.4014145880937581</v>
+        <v>2.3661044619878</v>
       </c>
     </row>
     <row r="1459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="B1459" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="C1459" t="s">
         <v>7</v>
       </c>
       <c r="D1459">
-        <v>48.871044051984001</v>
+        <v>48.859059340842002</v>
       </c>
       <c r="E1459">
-        <v>2.3661044619878</v>
+        <v>2.3476943001151001</v>
       </c>
     </row>
     <row r="1460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="B1460" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="C1460" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D1460">
-        <v>48.859059340842002</v>
+        <v>48.836022242886997</v>
       </c>
       <c r="E1460">
-        <v>2.3476943001151001</v>
+        <v>2.4708339950829998</v>
       </c>
     </row>
     <row r="1461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="B1461" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="C1461" t="s">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="D1461">
-        <v>48.836022242886997</v>
+        <v>48.883601088296999</v>
       </c>
       <c r="E1461">
-        <v>2.4708339950829998</v>
+        <v>2.3332237824797999</v>
       </c>
     </row>
     <row r="1462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="B1462" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="C1462" t="s">
-        <v>7</v>
+        <v>832</v>
       </c>
       <c r="D1462">
-        <v>48.883601088296999</v>
+        <v>48.906125424194002</v>
       </c>
       <c r="E1462">
-        <v>2.3332237824797999</v>
+        <v>2.3440374449846</v>
       </c>
     </row>
     <row r="1463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="B1463" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="C1463" t="s">
-        <v>832</v>
+        <v>7</v>
       </c>
       <c r="D1463">
-        <v>48.906125424194002</v>
+        <v>48.876116000000003</v>
       </c>
       <c r="E1463">
-        <v>2.3440374449846</v>
+        <v>2.2881239999999998</v>
       </c>
     </row>
     <row r="1464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="B1464" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="C1464" t="s">
         <v>7</v>
       </c>
       <c r="D1464">
-        <v>48.876116000000003</v>
+        <v>48.872699639620997</v>
       </c>
       <c r="E1464">
-        <v>2.2881239999999998</v>
+        <v>2.3001953959465</v>
       </c>
     </row>
     <row r="1465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="B1465" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="C1465" t="s">
         <v>7</v>
       </c>
       <c r="D1465">
-        <v>48.872699639620997</v>
+        <v>48.8350268238</v>
       </c>
       <c r="E1465">
-        <v>2.3001953959465</v>
+        <v>2.3760157451034001</v>
       </c>
     </row>
     <row r="1466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="B1466" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="C1466" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D1466">
-        <v>48.8350268238</v>
+        <v>48.902519074064003</v>
       </c>
       <c r="E1466">
-        <v>2.3760157451034001</v>
+        <v>2.3740895837545</v>
       </c>
     </row>
     <row r="1467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="B1467" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="C1467" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D1467">
-        <v>48.902519074064003</v>
+        <v>48.821242484010057</v>
       </c>
       <c r="E1467">
-        <v>2.3740895837545</v>
+        <v>2.2511002421379089</v>
       </c>
     </row>
     <row r="1468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="B1468" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="C1468" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D1468">
-        <v>48.821242484010057</v>
+        <v>48.834131261494001</v>
       </c>
       <c r="E1468">
-        <v>2.2511002421379089</v>
+        <v>2.4547516554594</v>
       </c>
     </row>
     <row r="1469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="B1469" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="C1469" t="s">
         <v>7</v>
       </c>
       <c r="D1469">
-        <v>48.834131261494001</v>
+        <v>48.855022200000001</v>
       </c>
       <c r="E1469">
-        <v>2.4547516554594</v>
+        <v>2.3612321999999999</v>
       </c>
     </row>
     <row r="1470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="B1470" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="C1470" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D1470">
-        <v>48.855022200000001</v>
+        <v>48.819116181578757</v>
       </c>
       <c r="E1470">
-        <v>2.3612321999999999</v>
+        <v>2.39666372537613</v>
       </c>
     </row>
     <row r="1471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="B1471" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="C1471" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D1471">
-        <v>48.819116181578757</v>
+        <v>48.874422773426552</v>
       </c>
       <c r="E1471">
-        <v>2.39666372537613</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1472" t="s">
-        <v>3006</v>
-      </c>
-      <c r="B1472" t="s">
-        <v>3007</v>
-      </c>
-      <c r="C1472" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1472">
-        <v>48.874422773426552</v>
-      </c>
-      <c r="E1472">
         <v>2.3284685611724849</v>
       </c>
     </row>
